--- a/docs/collections/christian/metadata/data.xlsx
+++ b/docs/collections/christian/metadata/data.xlsx
@@ -64,6 +64,66 @@
     <t>A00:X25</t>
   </si>
   <si>
+    <t>年</t>
+  </si>
+  <si>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian/document/ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian/document/394c6988-9bd0-4adc-8c3c-4e05cb02b6a2</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/39287/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/39288/manifest</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 / General Library in the University of Tokyo</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
+  </si>
+  <si>
+    <t>394c6988-9bd0-4adc-8c3c-4e05cb02b6a2</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>キリシタン写本</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/39287</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/39288</t>
+  </si>
+  <si>
     <t>サムネイル</t>
   </si>
   <si>
@@ -73,76 +133,16 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/a14eada5362f9ec224a246534dd899aebf594a26.jpg</t>
   </si>
   <si>
-    <t>マニフェストURI</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/39287/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/39288/manifest</t>
-  </si>
-  <si>
-    <t>ソート用</t>
-  </si>
-  <si>
-    <t>コレクション名</t>
-  </si>
-  <si>
-    <t>キリシタン写本</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
-  </si>
-  <si>
-    <t>394c6988-9bd0-4adc-8c3c-4e05cb02b6a2</t>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian</t>
   </si>
   <si>
     <t>利用条件</t>
   </si>
   <si>
     <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
-  </si>
-  <si>
-    <t>アイテムURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian/document/ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian/document/394c6988-9bd0-4adc-8c3c-4e05cb02b6a2</t>
-  </si>
-  <si>
-    <t>機械可読データ</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/39287</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/39288</t>
-  </si>
-  <si>
-    <t>所蔵</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 / General Library in the University of Tokyo</t>
-  </si>
-  <si>
-    <t>年</t>
-  </si>
-  <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
-  </si>
-  <si>
-    <t>サイトURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian</t>
   </si>
 </sst>
 </file>
@@ -515,10 +515,10 @@
         <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
         <v>23</v>
@@ -527,19 +527,19 @@
         <v>25</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
         <v>30</v>
       </c>
       <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>36</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>38</v>
       </c>
       <c r="R1" t="s">
         <v>39</v>
@@ -564,28 +564,28 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>37</v>
       </c>
       <c r="R2" s="1" t="s">
@@ -614,29 +614,29 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P3" t="s">
-        <v>37</v>
+      <c r="Q3" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>40</v>
@@ -647,19 +647,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="M2" r:id="rId3"/>
-    <hyperlink ref="N2" r:id="rId4"/>
-    <hyperlink ref="O2" r:id="rId5"/>
-    <hyperlink ref="R2" r:id="rId6" location="rightToLeftDirection"/>
+    <hyperlink ref="I2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="K2" r:id="rId3" location="rightToLeftDirection"/>
+    <hyperlink ref="P2" r:id="rId4"/>
+    <hyperlink ref="Q2" r:id="rId5"/>
+    <hyperlink ref="R2" r:id="rId6"/>
     <hyperlink ref="S2" r:id="rId7"/>
-    <hyperlink ref="H3" r:id="rId8"/>
-    <hyperlink ref="I3" r:id="rId9"/>
-    <hyperlink ref="M3" r:id="rId10"/>
-    <hyperlink ref="N3" r:id="rId11"/>
-    <hyperlink ref="O3" r:id="rId12"/>
-    <hyperlink ref="R3" r:id="rId13" location="rightToLeftDirection"/>
+    <hyperlink ref="I3" r:id="rId8"/>
+    <hyperlink ref="J3" r:id="rId9"/>
+    <hyperlink ref="K3" r:id="rId10" location="rightToLeftDirection"/>
+    <hyperlink ref="P3" r:id="rId11"/>
+    <hyperlink ref="Q3" r:id="rId12"/>
+    <hyperlink ref="R3" r:id="rId13"/>
     <hyperlink ref="S3" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/collections/christian/metadata/data.xlsx
+++ b/docs/collections/christian/metadata/data.xlsx
@@ -14,23 +14,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>dcterms:title</t>
+  </si>
+  <si>
     <t>ぎやどぺかどる</t>
   </si>
   <si>
     <t>ドチリナ・キリシタン</t>
   </si>
   <si>
-    <t>dcterms:description</t>
-  </si>
-  <si>
     <t>書名よみ</t>
   </si>
   <si>
+    <t>dcndl:titleTranscription</t>
+  </si>
+  <si>
     <t>ギヤドペカドル</t>
   </si>
   <si>
@@ -40,12 +43,18 @@
     <t>出版</t>
   </si>
   <si>
+    <t>dcterms:publisher</t>
+  </si>
+  <si>
     <t>写</t>
   </si>
   <si>
     <t>形態</t>
   </si>
   <si>
+    <t>dcterms:extent</t>
+  </si>
+  <si>
     <t>[189丁] ; 大</t>
   </si>
   <si>
@@ -55,94 +64,139 @@
     <t>分類</t>
   </si>
   <si>
+    <t>dcterms:subject</t>
+  </si>
+  <si>
     <t>キリスト教</t>
   </si>
   <si>
     <t>原本請求記号</t>
   </si>
   <si>
+    <t>dcndl:callNumber</t>
+  </si>
+  <si>
     <t>A00:X25</t>
   </si>
   <si>
-    <t>年</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
+  </si>
+  <si>
+    <t>394c6988-9bd0-4adc-8c3c-4e05cb02b6a2</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian</t>
   </si>
   <si>
     <t>アイテムURL</t>
   </si>
   <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian/document/ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian/document/394c6988-9bd0-4adc-8c3c-4e05cb02b6a2</t>
   </si>
   <si>
+    <t>利用条件</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
+  </si>
+  <si>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/ebb775777d3b47a521407bbed523d5f088ba43f0.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/a14eada5362f9ec224a246534dd899aebf594a26.jpg</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/39287</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/39288</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 / General Library in the University of Tokyo</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>キリシタン写本</t>
+  </si>
+  <si>
     <t>IIIFマニフェストURI</t>
   </si>
   <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/39287/manifest</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/39288/manifest</t>
-  </si>
-  <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
-  </si>
-  <si>
-    <t>帰属</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 / General Library in the University of Tokyo</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
-  </si>
-  <si>
-    <t>394c6988-9bd0-4adc-8c3c-4e05cb02b6a2</t>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/ecd1285a-42b6-4541-b640-1067b2f9fde0/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/394c6988-9bd0-4adc-8c3c-4e05cb02b6a2/manifest</t>
   </si>
   <si>
     <t>ソート用項目</t>
   </si>
   <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>キリシタン写本</t>
-  </si>
-  <si>
-    <t>機械可読ドキュメント</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/39287</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/39288</t>
-  </si>
-  <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/ebb775777d3b47a521407bbed523d5f088ba43f0.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/a14eada5362f9ec224a246534dd899aebf594a26.jpg</t>
-  </si>
-  <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian</t>
-  </si>
-  <si>
-    <t>利用条件</t>
-  </si>
-  <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
+    <t>uterms:sort</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t># of media</t>
   </si>
 </sst>
 </file>
@@ -160,10 +214,9 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,14 +236,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -483,7 +541,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,173 +552,238 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="L1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="N1" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="O1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="R1" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="S1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
       </c>
       <c r="O2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="P2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2">
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>42</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="S4">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="K2" r:id="rId3" location="rightToLeftDirection"/>
-    <hyperlink ref="P2" r:id="rId4"/>
-    <hyperlink ref="Q2" r:id="rId5"/>
-    <hyperlink ref="R2" r:id="rId6"/>
-    <hyperlink ref="S2" r:id="rId7"/>
-    <hyperlink ref="I3" r:id="rId8"/>
-    <hyperlink ref="J3" r:id="rId9"/>
-    <hyperlink ref="K3" r:id="rId10" location="rightToLeftDirection"/>
-    <hyperlink ref="P3" r:id="rId11"/>
-    <hyperlink ref="Q3" r:id="rId12"/>
-    <hyperlink ref="R3" r:id="rId13"/>
-    <hyperlink ref="S3" r:id="rId14"/>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="K3" r:id="rId4"/>
+    <hyperlink ref="L3" r:id="rId5"/>
+    <hyperlink ref="N3" r:id="rId6" location="rightToLeftDirection"/>
+    <hyperlink ref="P3" r:id="rId7"/>
+    <hyperlink ref="H4" r:id="rId8"/>
+    <hyperlink ref="I4" r:id="rId9"/>
+    <hyperlink ref="J4" r:id="rId10"/>
+    <hyperlink ref="K4" r:id="rId11"/>
+    <hyperlink ref="L4" r:id="rId12"/>
+    <hyperlink ref="N4" r:id="rId13" location="rightToLeftDirection"/>
+    <hyperlink ref="P4" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/collections/christian/metadata/data.xlsx
+++ b/docs/collections/christian/metadata/data.xlsx
@@ -1,227 +1,252 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>書名よみ</t>
+  </si>
+  <si>
+    <t>出版</t>
+  </si>
+  <si>
+    <t>形態</t>
+  </si>
+  <si>
+    <t>分類</t>
+  </si>
+  <si>
+    <t>原本請求記号</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>利用条件</t>
+  </si>
+  <si>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>viewingHint</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>IIIF Search API URI</t>
+  </si>
+  <si>
+    <t>アノテーション付きIIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>Link to TAPAS Project</t>
+  </si>
+  <si>
+    <t>Text with Rich Text Format</t>
+  </si>
+  <si>
+    <t># of media</t>
+  </si>
+  <si>
     <t>dcterms:title</t>
   </si>
   <si>
+    <t>dcndl:titleTranscription</t>
+  </si>
+  <si>
+    <t>dcterms:publisher</t>
+  </si>
+  <si>
+    <t>dcterms:extent</t>
+  </si>
+  <si>
+    <t>dcterms:subject</t>
+  </si>
+  <si>
+    <t>dcndl:callNumber</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t>ぎやどぺかどる</t>
   </si>
   <si>
+    <t>ギヤドペカドル</t>
+  </si>
+  <si>
+    <t>写</t>
+  </si>
+  <si>
+    <t>[189丁] ; 大</t>
+  </si>
+  <si>
+    <t>キリスト教</t>
+  </si>
+  <si>
+    <t>ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian/document/ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
+  </si>
+  <si>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/ebb775777d3b47a521407bbed523d5f088ba43f0.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/39287</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 / General Library in the University of Tokyo</t>
+  </si>
+  <si>
+    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
+  </si>
+  <si>
+    <t>キリシタン写本</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/ecd1285a-42b6-4541-b640-1067b2f9fde0/manifest</t>
+  </si>
+  <si>
     <t>ドチリナ・キリシタン</t>
   </si>
   <si>
-    <t>書名よみ</t>
-  </si>
-  <si>
-    <t>dcndl:titleTranscription</t>
-  </si>
-  <si>
-    <t>ギヤドペカドル</t>
-  </si>
-  <si>
     <t>ドチリナキリシタン</t>
   </si>
   <si>
-    <t>出版</t>
-  </si>
-  <si>
-    <t>dcterms:publisher</t>
-  </si>
-  <si>
-    <t>写</t>
-  </si>
-  <si>
-    <t>形態</t>
-  </si>
-  <si>
-    <t>dcterms:extent</t>
-  </si>
-  <si>
-    <t>[189丁] ; 大</t>
-  </si>
-  <si>
     <t>1冊 ; 大</t>
   </si>
   <si>
-    <t>分類</t>
-  </si>
-  <si>
-    <t>dcterms:subject</t>
-  </si>
-  <si>
-    <t>キリスト教</t>
-  </si>
-  <si>
-    <t>原本請求記号</t>
-  </si>
-  <si>
-    <t>dcndl:callNumber</t>
-  </si>
-  <si>
     <t>A00:X25</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
-  </si>
-  <si>
-    <t>ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
-  </si>
-  <si>
     <t>394c6988-9bd0-4adc-8c3c-4e05cb02b6a2</t>
   </si>
   <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian</t>
-  </si>
-  <si>
-    <t>アイテムURL</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian/document/ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian/document/394c6988-9bd0-4adc-8c3c-4e05cb02b6a2</t>
   </si>
   <si>
-    <t>利用条件</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
-  </si>
-  <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/ebb775777d3b47a521407bbed523d5f088ba43f0.jpg</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/a14eada5362f9ec224a246534dd899aebf594a26.jpg</t>
   </si>
   <si>
-    <t>機械可読ドキュメント</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/39287</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/39288</t>
   </si>
   <si>
-    <t>帰属</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 / General Library in the University of Tokyo</t>
-  </si>
-  <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
-    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
-  </si>
-  <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>キリシタン写本</t>
-  </si>
-  <si>
-    <t>IIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/ecd1285a-42b6-4541-b640-1067b2f9fde0/manifest</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/394c6988-9bd0-4adc-8c3c-4e05cb02b6a2/manifest</t>
-  </si>
-  <si>
-    <t>ソート用項目</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>西暦</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t># of media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -236,23 +261,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -540,251 +558,286 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
         <v>32</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
       </c>
       <c r="J2" t="s">
         <v>33</v>
       </c>
       <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
         <v>40</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s">
         <v>44</v>
       </c>
-      <c r="N2" t="s">
+      <c r="V2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
         <v>50</v>
       </c>
-      <c r="P2" t="s">
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s"/>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="R2" t="s">
+      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="S2">
-        <v>280</v>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="s"/>
+      <c r="W3" t="s"/>
+      <c r="X3" t="n">
+        <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O3" t="s">
+    <row r="4" spans="1:24">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S3">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>42</v>
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S4">
+        <v>58</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="s"/>
+      <c r="W4" t="s"/>
+      <c r="X4" t="n">
         <v>89</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="J3" r:id="rId3"/>
-    <hyperlink ref="K3" r:id="rId4"/>
-    <hyperlink ref="L3" r:id="rId5"/>
-    <hyperlink ref="N3" r:id="rId6" location="rightToLeftDirection"/>
-    <hyperlink ref="P3" r:id="rId7"/>
-    <hyperlink ref="H4" r:id="rId8"/>
-    <hyperlink ref="I4" r:id="rId9"/>
-    <hyperlink ref="J4" r:id="rId10"/>
-    <hyperlink ref="K4" r:id="rId11"/>
-    <hyperlink ref="L4" r:id="rId12"/>
-    <hyperlink ref="N4" r:id="rId13" location="rightToLeftDirection"/>
-    <hyperlink ref="P4" r:id="rId14"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/docs/collections/christian/metadata/data.xlsx
+++ b/docs/collections/christian/metadata/data.xlsx
@@ -182,7 +182,7 @@
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian/document/ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
   </si>
   <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/general/reuse</t>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
   </si>
   <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/ebb775777d3b47a521407bbed523d5f088ba43f0.jpg</t>

--- a/docs/collections/christian/metadata/data.xlsx
+++ b/docs/collections/christian/metadata/data.xlsx
@@ -1,252 +1,257 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>dcterms:title</t>
+  </si>
+  <si>
+    <t>ぎやどぺかどる</t>
+  </si>
+  <si>
+    <t>ドチリナ・キリシタン</t>
+  </si>
+  <si>
     <t>書名よみ</t>
   </si>
   <si>
+    <t>dcndl:titleTranscription</t>
+  </si>
+  <si>
+    <t>ギヤドペカドル</t>
+  </si>
+  <si>
+    <t>ドチリナキリシタン</t>
+  </si>
+  <si>
     <t>出版</t>
   </si>
   <si>
+    <t>dcterms:publisher</t>
+  </si>
+  <si>
+    <t>写</t>
+  </si>
+  <si>
     <t>形態</t>
   </si>
   <si>
+    <t>dcterms:extent</t>
+  </si>
+  <si>
+    <t>[189丁] ; 大</t>
+  </si>
+  <si>
+    <t>1冊 ; 大</t>
+  </si>
+  <si>
     <t>分類</t>
   </si>
   <si>
+    <t>dcterms:subject</t>
+  </si>
+  <si>
+    <t>キリスト教</t>
+  </si>
+  <si>
     <t>原本請求記号</t>
   </si>
   <si>
+    <t>dcndl:callNumber</t>
+  </si>
+  <si>
+    <t>A00:X25</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
+  </si>
+  <si>
+    <t>394c6988-9bd0-4adc-8c3c-4e05cb02b6a2</t>
+  </si>
+  <si>
     <t>ウェブサイトURL</t>
   </si>
   <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian</t>
+  </si>
+  <si>
     <t>アイテムURL</t>
   </si>
   <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian/document/ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian/document/394c6988-9bd0-4adc-8c3c-4e05cb02b6a2</t>
+  </si>
+  <si>
     <t>利用条件</t>
   </si>
   <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
+  </si>
+  <si>
     <t>サムネイル</t>
   </si>
   <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/26e8b61f27c184512f0457a548b7c27743203c31.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6e6d39a62e9c18bf0674ffe666522a0736f3abf3.jpg</t>
+  </si>
+  <si>
     <t>機械可読ドキュメント</t>
   </si>
   <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/39287</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/39288</t>
+  </si>
+  <si>
     <t>帰属</t>
   </si>
   <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 / General Library in the University of Tokyo</t>
+  </si>
+  <si>
     <t>viewingDirection</t>
   </si>
   <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
+  </si>
+  <si>
     <t>viewingHint</t>
   </si>
   <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
     <t>コレクション</t>
   </si>
   <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>キリシタン写本</t>
+  </si>
+  <si>
     <t>ソート用項目</t>
   </si>
   <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
     <t>西暦</t>
   </si>
   <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
     <t>IIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/ecd1285a-42b6-4541-b640-1067b2f9fde0/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/394c6988-9bd0-4adc-8c3c-4e05cb02b6a2/manifest</t>
+  </si>
+  <si>
     <t>IIIF Search API URI</t>
   </si>
   <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
     <t>アノテーション付きIIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
     <t>Link to TAPAS Project</t>
   </si>
   <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
     <t>Text with Rich Text Format</t>
   </si>
   <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t># of media</t>
-  </si>
-  <si>
-    <t>dcterms:title</t>
-  </si>
-  <si>
-    <t>dcndl:titleTranscription</t>
-  </si>
-  <si>
-    <t>dcterms:publisher</t>
-  </si>
-  <si>
-    <t>dcterms:extent</t>
-  </si>
-  <si>
-    <t>dcterms:subject</t>
-  </si>
-  <si>
-    <t>dcndl:callNumber</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingHint</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t>ぎやどぺかどる</t>
-  </si>
-  <si>
-    <t>ギヤドペカドル</t>
-  </si>
-  <si>
-    <t>写</t>
-  </si>
-  <si>
-    <t>[189丁] ; 大</t>
-  </si>
-  <si>
-    <t>キリスト教</t>
-  </si>
-  <si>
-    <t>ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian/document/ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
-  </si>
-  <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/ebb775777d3b47a521407bbed523d5f088ba43f0.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/39287</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 / General Library in the University of Tokyo</t>
-  </si>
-  <si>
-    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
-  </si>
-  <si>
-    <t>キリシタン写本</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/ecd1285a-42b6-4541-b640-1067b2f9fde0/manifest</t>
-  </si>
-  <si>
-    <t>ドチリナ・キリシタン</t>
-  </si>
-  <si>
-    <t>ドチリナキリシタン</t>
-  </si>
-  <si>
-    <t>1冊 ; 大</t>
-  </si>
-  <si>
-    <t>A00:X25</t>
-  </si>
-  <si>
-    <t>394c6988-9bd0-4adc-8c3c-4e05cb02b6a2</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian/document/394c6988-9bd0-4adc-8c3c-4e05cb02b6a2</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/square/a14eada5362f9ec224a246534dd899aebf594a26.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/39288</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/394c6988-9bd0-4adc-8c3c-4e05cb02b6a2/manifest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -261,16 +266,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -558,286 +570,281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="U1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="V1" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="W1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="X1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
       </c>
       <c r="J2" t="s">
         <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="Q2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="S2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="T2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="U2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="V2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="W2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" t="n">
+        <v>69</v>
+      </c>
+      <c r="X2">
         <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="P3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s">
+      <c r="S3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-      <c r="V3" t="s"/>
-      <c r="W3" t="s"/>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" t="s">
         <v>53</v>
       </c>
-      <c r="I4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s">
-        <v>70</v>
-      </c>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-      <c r="V4" t="s"/>
-      <c r="W4" t="s"/>
-      <c r="X4" t="n">
+      <c r="S4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4">
         <v>89</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="K3" r:id="rId4"/>
+    <hyperlink ref="L3" r:id="rId5"/>
+    <hyperlink ref="N3" r:id="rId6" location="rightToLeftDirection"/>
+    <hyperlink ref="S3" r:id="rId7"/>
+    <hyperlink ref="H4" r:id="rId8"/>
+    <hyperlink ref="I4" r:id="rId9"/>
+    <hyperlink ref="J4" r:id="rId10"/>
+    <hyperlink ref="K4" r:id="rId11"/>
+    <hyperlink ref="L4" r:id="rId12"/>
+    <hyperlink ref="N4" r:id="rId13" location="rightToLeftDirection"/>
+    <hyperlink ref="S4" r:id="rId14"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/collections/christian/metadata/data.xlsx
+++ b/docs/collections/christian/metadata/data.xlsx
@@ -1,257 +1,252 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>書名よみ</t>
+  </si>
+  <si>
+    <t>出版</t>
+  </si>
+  <si>
+    <t>形態</t>
+  </si>
+  <si>
+    <t>分類</t>
+  </si>
+  <si>
+    <t>原本請求記号</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ウェブサイトURL</t>
+  </si>
+  <si>
+    <t>アイテムURL</t>
+  </si>
+  <si>
+    <t>利用条件</t>
+  </si>
+  <si>
+    <t>サムネイル</t>
+  </si>
+  <si>
+    <t>機械可読ドキュメント</t>
+  </si>
+  <si>
+    <t>帰属</t>
+  </si>
+  <si>
+    <t>viewingDirection</t>
+  </si>
+  <si>
+    <t>viewingHint</t>
+  </si>
+  <si>
+    <t>コレクション</t>
+  </si>
+  <si>
+    <t>ソート用項目</t>
+  </si>
+  <si>
+    <t>西暦</t>
+  </si>
+  <si>
+    <t>IIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>IIIF Search API URI</t>
+  </si>
+  <si>
+    <t>アノテーション付きIIIFマニフェストURI</t>
+  </si>
+  <si>
+    <t>Link to TAPAS Project</t>
+  </si>
+  <si>
+    <t>Text with Rich Text Format</t>
+  </si>
+  <si>
+    <t># of media</t>
+  </si>
+  <si>
     <t>dcterms:title</t>
   </si>
   <si>
+    <t>dcndl:titleTranscription</t>
+  </si>
+  <si>
+    <t>dcterms:publisher</t>
+  </si>
+  <si>
+    <t>dcterms:extent</t>
+  </si>
+  <si>
+    <t>dcterms:subject</t>
+  </si>
+  <si>
+    <t>dcndl:callNumber</t>
+  </si>
+  <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t>ぎやどぺかどる</t>
   </si>
   <si>
+    <t>ギヤドペカドル</t>
+  </si>
+  <si>
+    <t>写</t>
+  </si>
+  <si>
+    <t>[189丁] ; 大</t>
+  </si>
+  <si>
+    <t>キリスト教</t>
+  </si>
+  <si>
+    <t>ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian/document/ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
+  </si>
+  <si>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/26e8b61f27c184512f0457a548b7c27743203c31.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/39287</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 / General Library in the University of Tokyo</t>
+  </si>
+  <si>
+    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
+  </si>
+  <si>
+    <t>キリシタン写本</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/ecd1285a-42b6-4541-b640-1067b2f9fde0/manifest</t>
+  </si>
+  <si>
     <t>ドチリナ・キリシタン</t>
   </si>
   <si>
-    <t>書名よみ</t>
-  </si>
-  <si>
-    <t>dcndl:titleTranscription</t>
-  </si>
-  <si>
-    <t>ギヤドペカドル</t>
-  </si>
-  <si>
     <t>ドチリナキリシタン</t>
   </si>
   <si>
-    <t>出版</t>
-  </si>
-  <si>
-    <t>dcterms:publisher</t>
-  </si>
-  <si>
-    <t>写</t>
-  </si>
-  <si>
-    <t>形態</t>
-  </si>
-  <si>
-    <t>dcterms:extent</t>
-  </si>
-  <si>
-    <t>[189丁] ; 大</t>
-  </si>
-  <si>
     <t>1冊 ; 大</t>
   </si>
   <si>
-    <t>分類</t>
-  </si>
-  <si>
-    <t>dcterms:subject</t>
-  </si>
-  <si>
-    <t>キリスト教</t>
-  </si>
-  <si>
-    <t>原本請求記号</t>
-  </si>
-  <si>
-    <t>dcndl:callNumber</t>
-  </si>
-  <si>
     <t>A00:X25</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
-  </si>
-  <si>
-    <t>ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
-  </si>
-  <si>
     <t>394c6988-9bd0-4adc-8c3c-4e05cb02b6a2</t>
   </si>
   <si>
-    <t>ウェブサイトURL</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian</t>
-  </si>
-  <si>
-    <t>アイテムURL</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian/document/ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian/document/394c6988-9bd0-4adc-8c3c-4e05cb02b6a2</t>
   </si>
   <si>
-    <t>利用条件</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
-  </si>
-  <si>
-    <t>サムネイル</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/26e8b61f27c184512f0457a548b7c27743203c31.jpg</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6e6d39a62e9c18bf0674ffe666522a0736f3abf3.jpg</t>
   </si>
   <si>
-    <t>機械可読ドキュメント</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/39287</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/39288</t>
   </si>
   <si>
-    <t>帰属</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 / General Library in the University of Tokyo</t>
-  </si>
-  <si>
-    <t>viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
-    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
-  </si>
-  <si>
-    <t>viewingHint</t>
-  </si>
-  <si>
-    <t>sc:viewingHint</t>
-  </si>
-  <si>
-    <t>コレクション</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>キリシタン写本</t>
-  </si>
-  <si>
-    <t>ソート用項目</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>西暦</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t>IIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/ecd1285a-42b6-4541-b640-1067b2f9fde0/manifest</t>
-  </si>
-  <si>
     <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/394c6988-9bd0-4adc-8c3c-4e05cb02b6a2/manifest</t>
-  </si>
-  <si>
-    <t>IIIF Search API URI</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>アノテーション付きIIIFマニフェストURI</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
-    <t>Link to TAPAS Project</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
-    <t>Text with Rich Text Format</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t># of media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -266,23 +261,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+  <cellXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -570,281 +558,286 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V1" t="s">
-        <v>66</v>
-      </c>
       <c r="W1" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="X1" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
         <v>33</v>
       </c>
       <c r="K2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" t="s">
         <v>40</v>
       </c>
-      <c r="M2" t="s">
+      <c r="R2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" t="s">
+        <v>42</v>
+      </c>
+      <c r="T2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" t="s">
         <v>44</v>
       </c>
-      <c r="N2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O2" t="s">
-        <v>50</v>
-      </c>
-      <c r="P2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S2" t="s">
-        <v>59</v>
-      </c>
-      <c r="T2" t="s">
-        <v>63</v>
-      </c>
-      <c r="U2" t="s">
-        <v>65</v>
-      </c>
       <c r="V2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="W2" t="s">
-        <v>69</v>
-      </c>
-      <c r="X2">
+        <v>46</v>
+      </c>
+      <c r="X2" t="n">
         <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F3" t="s"/>
       <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>41</v>
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
       </c>
       <c r="M3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s"/>
       <c r="P3" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X3">
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s">
+        <v>61</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="s"/>
+      <c r="W3" t="s"/>
+      <c r="X3" t="n">
         <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>42</v>
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s"/>
       <c r="P4" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="X4">
+        <v>60</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="s"/>
+      <c r="W4" t="s"/>
+      <c r="X4" t="n">
         <v>89</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="J3" r:id="rId3"/>
-    <hyperlink ref="K3" r:id="rId4"/>
-    <hyperlink ref="L3" r:id="rId5"/>
-    <hyperlink ref="N3" r:id="rId6" location="rightToLeftDirection"/>
-    <hyperlink ref="S3" r:id="rId7"/>
-    <hyperlink ref="H4" r:id="rId8"/>
-    <hyperlink ref="I4" r:id="rId9"/>
-    <hyperlink ref="J4" r:id="rId10"/>
-    <hyperlink ref="K4" r:id="rId11"/>
-    <hyperlink ref="L4" r:id="rId12"/>
-    <hyperlink ref="N4" r:id="rId13" location="rightToLeftDirection"/>
-    <hyperlink ref="S4" r:id="rId14"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/docs/collections/christian/metadata/data.xlsx
+++ b/docs/collections/christian/metadata/data.xlsx
@@ -1,252 +1,257 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>タイトル</t>
   </si>
   <si>
+    <t>dcterms:title</t>
+  </si>
+  <si>
+    <t>ぎやどぺかどる</t>
+  </si>
+  <si>
+    <t>ドチリナ・キリシタン</t>
+  </si>
+  <si>
     <t>書名よみ</t>
   </si>
   <si>
+    <t>dcndl:titleTranscription</t>
+  </si>
+  <si>
+    <t>ギヤドペカドル</t>
+  </si>
+  <si>
+    <t>ドチリナキリシタン</t>
+  </si>
+  <si>
     <t>出版</t>
   </si>
   <si>
+    <t>dcterms:publisher</t>
+  </si>
+  <si>
+    <t>写</t>
+  </si>
+  <si>
     <t>形態</t>
   </si>
   <si>
+    <t>dcterms:extent</t>
+  </si>
+  <si>
+    <t>[189丁] ; 大</t>
+  </si>
+  <si>
+    <t>1冊 ; 大</t>
+  </si>
+  <si>
     <t>分類</t>
   </si>
   <si>
+    <t>dcterms:subject</t>
+  </si>
+  <si>
+    <t>キリスト教</t>
+  </si>
+  <si>
     <t>原本請求記号</t>
   </si>
   <si>
+    <t>dcndl:callNumber</t>
+  </si>
+  <si>
+    <t>A00:X25</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>bibo:identifier</t>
+  </si>
+  <si>
+    <t>ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
+  </si>
+  <si>
+    <t>394c6988-9bd0-4adc-8c3c-4e05cb02b6a2</t>
+  </si>
+  <si>
     <t>ウェブサイトURL</t>
   </si>
   <si>
+    <t>dcterms:isPartOf</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian</t>
+  </si>
+  <si>
     <t>アイテムURL</t>
   </si>
   <si>
+    <t>dcterms:relation</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian/document/ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian/document/394c6988-9bd0-4adc-8c3c-4e05cb02b6a2</t>
+  </si>
+  <si>
     <t>利用条件</t>
   </si>
   <si>
+    <t>dcterms:rights</t>
+  </si>
+  <si>
+    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
+  </si>
+  <si>
     <t>サムネイル</t>
   </si>
   <si>
+    <t>foaf:thumbnail</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/26e8b61f27c184512f0457a548b7c27743203c31.jpg</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6e6d39a62e9c18bf0674ffe666522a0736f3abf3.jpg</t>
+  </si>
+  <si>
     <t>機械可読ドキュメント</t>
   </si>
   <si>
+    <t>rdfs:seeAlso</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/39287</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/39288</t>
+  </si>
+  <si>
     <t>帰属</t>
   </si>
   <si>
+    <t>sc:attributionLabel</t>
+  </si>
+  <si>
+    <t>東京大学総合図書館 / General Library in the University of Tokyo</t>
+  </si>
+  <si>
     <t>viewingDirection</t>
   </si>
   <si>
+    <t>sc:viewingDirection</t>
+  </si>
+  <si>
+    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
+  </si>
+  <si>
     <t>viewingHint</t>
   </si>
   <si>
+    <t>sc:viewingHint</t>
+  </si>
+  <si>
     <t>コレクション</t>
   </si>
   <si>
+    <t>uterms:databaseLabel</t>
+  </si>
+  <si>
+    <t>キリシタン写本</t>
+  </si>
+  <si>
     <t>ソート用項目</t>
   </si>
   <si>
+    <t>uterms:sort</t>
+  </si>
+  <si>
     <t>西暦</t>
   </si>
   <si>
+    <t>uterms:year</t>
+  </si>
+  <si>
     <t>IIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:manifestUri</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/ecd1285a-42b6-4541-b640-1067b2f9fde0/manifest</t>
+  </si>
+  <si>
+    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/394c6988-9bd0-4adc-8c3c-4e05cb02b6a2/manifest</t>
+  </si>
+  <si>
     <t>IIIF Search API URI</t>
   </si>
   <si>
+    <t>uterms:searchApiUri</t>
+  </si>
+  <si>
     <t>アノテーション付きIIIFマニフェストURI</t>
   </si>
   <si>
+    <t>uterms:annotedManifest</t>
+  </si>
+  <si>
     <t>Link to TAPAS Project</t>
   </si>
   <si>
+    <t>uterms:linkToTapas</t>
+  </si>
+  <si>
     <t>Text with Rich Text Format</t>
   </si>
   <si>
+    <t>uterms:rtf</t>
+  </si>
+  <si>
     <t># of media</t>
-  </si>
-  <si>
-    <t>dcterms:title</t>
-  </si>
-  <si>
-    <t>dcndl:titleTranscription</t>
-  </si>
-  <si>
-    <t>dcterms:publisher</t>
-  </si>
-  <si>
-    <t>dcterms:extent</t>
-  </si>
-  <si>
-    <t>dcterms:subject</t>
-  </si>
-  <si>
-    <t>dcndl:callNumber</t>
-  </si>
-  <si>
-    <t>bibo:identifier</t>
-  </si>
-  <si>
-    <t>dcterms:isPartOf</t>
-  </si>
-  <si>
-    <t>dcterms:relation</t>
-  </si>
-  <si>
-    <t>dcterms:rights</t>
-  </si>
-  <si>
-    <t>foaf:thumbnail</t>
-  </si>
-  <si>
-    <t>rdfs:seeAlso</t>
-  </si>
-  <si>
-    <t>sc:attributionLabel</t>
-  </si>
-  <si>
-    <t>sc:viewingDirection</t>
-  </si>
-  <si>
-    <t>sc:viewingHint</t>
-  </si>
-  <si>
-    <t>uterms:databaseLabel</t>
-  </si>
-  <si>
-    <t>uterms:sort</t>
-  </si>
-  <si>
-    <t>uterms:year</t>
-  </si>
-  <si>
-    <t>uterms:manifestUri</t>
-  </si>
-  <si>
-    <t>uterms:searchApiUri</t>
-  </si>
-  <si>
-    <t>uterms:annotedManifest</t>
-  </si>
-  <si>
-    <t>uterms:linkToTapas</t>
-  </si>
-  <si>
-    <t>uterms:rtf</t>
-  </si>
-  <si>
-    <t>ぎやどぺかどる</t>
-  </si>
-  <si>
-    <t>ギヤドペカドル</t>
-  </si>
-  <si>
-    <t>写</t>
-  </si>
-  <si>
-    <t>[189丁] ; 大</t>
-  </si>
-  <si>
-    <t>キリスト教</t>
-  </si>
-  <si>
-    <t>ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian/document/ecd1285a-42b6-4541-b640-1067b2f9fde0</t>
-  </si>
-  <si>
-    <t>https://www.lib.u-tokyo.ac.jp/ja/library/contents/archives-top/reuse</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/26e8b61f27c184512f0457a548b7c27743203c31.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/39287</t>
-  </si>
-  <si>
-    <t>東京大学総合図書館 / General Library in the University of Tokyo</t>
-  </si>
-  <si>
-    <t>http://iiif.io/api/presentation/2#rightToLeftDirection</t>
-  </si>
-  <si>
-    <t>キリシタン写本</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/ecd1285a-42b6-4541-b640-1067b2f9fde0/manifest</t>
-  </si>
-  <si>
-    <t>ドチリナ・キリシタン</t>
-  </si>
-  <si>
-    <t>ドチリナキリシタン</t>
-  </si>
-  <si>
-    <t>1冊 ; 大</t>
-  </si>
-  <si>
-    <t>A00:X25</t>
-  </si>
-  <si>
-    <t>394c6988-9bd0-4adc-8c3c-4e05cb02b6a2</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/s/christian/document/394c6988-9bd0-4adc-8c3c-4e05cb02b6a2</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/files/medium/6e6d39a62e9c18bf0674ffe666522a0736f3abf3.jpg</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/api/items/39288</t>
-  </si>
-  <si>
-    <t>https://iiif.dl.itc.u-tokyo.ac.jp/repo/iiif/394c6988-9bd0-4adc-8c3c-4e05cb02b6a2/manifest</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <scheme val="minor"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -261,16 +266,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -558,286 +570,281 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="U1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="V1" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="W1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="X1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>32</v>
       </c>
       <c r="J2" t="s">
         <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="Q2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="S2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="T2" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="U2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="V2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="W2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" t="n">
+        <v>69</v>
+      </c>
+      <c r="X2">
         <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s"/>
-      <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="P3" t="s">
         <v>53</v>
       </c>
-      <c r="I3" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s">
+      <c r="S3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-      <c r="V3" t="s"/>
-      <c r="W3" t="s"/>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" t="s">
         <v>53</v>
       </c>
-      <c r="I4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" t="s">
-        <v>59</v>
-      </c>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s">
-        <v>70</v>
-      </c>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-      <c r="V4" t="s"/>
-      <c r="W4" t="s"/>
-      <c r="X4" t="n">
+      <c r="S4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4">
         <v>89</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="K3" r:id="rId4"/>
+    <hyperlink ref="L3" r:id="rId5"/>
+    <hyperlink ref="N3" r:id="rId6" location="rightToLeftDirection"/>
+    <hyperlink ref="S3" r:id="rId7"/>
+    <hyperlink ref="H4" r:id="rId8"/>
+    <hyperlink ref="I4" r:id="rId9"/>
+    <hyperlink ref="J4" r:id="rId10"/>
+    <hyperlink ref="K4" r:id="rId11"/>
+    <hyperlink ref="L4" r:id="rId12"/>
+    <hyperlink ref="N4" r:id="rId13" location="rightToLeftDirection"/>
+    <hyperlink ref="S4" r:id="rId14"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>